--- a/meetings.xlsx
+++ b/meetings.xlsx
@@ -8,17 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JU\Knowledge_Representation_HT2024\project\TO_BE_NAMED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9B76F3-3132-427C-84DF-C54C6F6B2919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BDD71F-4C3B-46B9-855A-9F8728994BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-75" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -39,9 +50,6 @@
     <t>Participants</t>
   </si>
   <si>
-    <t>Project Group 2 Members</t>
-  </si>
-  <si>
     <t>Mahmut = ma</t>
   </si>
   <si>
@@ -57,7 +65,10 @@
     <t>Clement = cl</t>
   </si>
   <si>
-    <t>Mohamad  = mo</t>
+    <t>Project Group 1 Members</t>
+  </si>
+  <si>
+    <t>ma, is, se, ce</t>
   </si>
 </sst>
 </file>
@@ -129,13 +140,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,7 +431,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -445,15 +457,22 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2" s="6">
+        <f>DATE(2024,12,5)</f>
+        <v>45631</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -461,7 +480,7 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -469,7 +488,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -477,7 +496,7 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -485,15 +504,12 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">

--- a/meetings.xlsx
+++ b/meetings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JU\Knowledge_Representation_HT2024\project\TO_BE_NAMED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BDD71F-4C3B-46B9-855A-9F8728994BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0583DEBE-6280-4E3F-9E85-8C376F45C912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-75" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>ID</t>
   </si>
@@ -68,7 +68,10 @@
     <t>Project Group 1 Members</t>
   </si>
   <si>
-    <t>ma, is, se, ce</t>
+    <t>ma, is, se</t>
+  </si>
+  <si>
+    <t>Workflow Diagram, Milestones, Project Tools</t>
   </si>
 </sst>
 </file>
@@ -431,7 +434,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -465,8 +468,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="6">
-        <f>DATE(2024,12,5)</f>
-        <v>45631</v>
+        <f>DATE(2024,12,18)</f>
+        <v>45644</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>

--- a/meetings.xlsx
+++ b/meetings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JU\Knowledge_Representation_HT2024\project\TO_BE_NAMED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0583DEBE-6280-4E3F-9E85-8C376F45C912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBD82FE-ECCC-4D3A-A20F-B95DF668D257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>ID</t>
   </si>
@@ -72,6 +72,15 @@
   </si>
   <si>
     <t>Workflow Diagram, Milestones, Project Tools</t>
+  </si>
+  <si>
+    <t>Reviewed Queries, Models, and Project Load Ahead</t>
+  </si>
+  <si>
+    <t>ma, is, se, cl, ce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reviewed Model &amp; UI, Planned to write more on Overleaf &amp; Get An MVP </t>
   </si>
 </sst>
 </file>
@@ -434,14 +443,14 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="27.6328125" customWidth="1"/>
     <col min="2" max="2" width="27.26953125" customWidth="1"/>
-    <col min="3" max="3" width="33.08984375" customWidth="1"/>
+    <col min="3" max="3" width="62.7265625" customWidth="1"/>
     <col min="4" max="4" width="27.36328125" customWidth="1"/>
     <col min="5" max="5" width="22.81640625" customWidth="1"/>
   </cols>
@@ -485,6 +494,15 @@
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" s="6">
+        <v>45646</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
       <c r="E3" t="s">
         <v>5</v>
       </c>
@@ -492,6 +510,12 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
+      </c>
+      <c r="B4" s="6">
+        <v>45651</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>

--- a/meetings.xlsx
+++ b/meetings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JU\Knowledge_Representation_HT2024\project\TO_BE_NAMED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBD82FE-ECCC-4D3A-A20F-B95DF668D257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005C7BAD-5065-4C9F-BE37-3800D80B1AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>ID</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t xml:space="preserve">Reviewed Model &amp; UI, Planned to write more on Overleaf &amp; Get An MVP </t>
+  </si>
+  <si>
+    <t>Updated everyone on current project progress, planned work for weekend, more functionality and write on the report</t>
   </si>
 </sst>
 </file>
@@ -443,14 +446,14 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="27.6328125" customWidth="1"/>
     <col min="2" max="2" width="27.26953125" customWidth="1"/>
-    <col min="3" max="3" width="62.7265625" customWidth="1"/>
+    <col min="3" max="3" width="99.1796875" customWidth="1"/>
     <col min="4" max="4" width="27.36328125" customWidth="1"/>
     <col min="5" max="5" width="22.81640625" customWidth="1"/>
   </cols>
@@ -517,6 +520,9 @@
       <c r="C4" t="s">
         <v>14</v>
       </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
       <c r="E4" t="s">
         <v>6</v>
       </c>
@@ -524,6 +530,15 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
+      </c>
+      <c r="B5" s="6">
+        <v>45653</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>

--- a/meetings.xlsx
+++ b/meetings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JU\Knowledge_Representation_HT2024\project\TO_BE_NAMED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005C7BAD-5065-4C9F-BE37-3800D80B1AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F320CC-1D77-42AD-8F88-DEDCCC42B07D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>ID</t>
   </si>
@@ -84,6 +84,12 @@
   </si>
   <si>
     <t>Updated everyone on current project progress, planned work for weekend, more functionality and write on the report</t>
+  </si>
+  <si>
+    <t>Discussed current progress on Chat Profiles, divided up the work, and planned for the report writing.</t>
+  </si>
+  <si>
+    <t>Reviewed current work, Suggest Updates to One of the Chats, Planned Remaining Report Writing</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -548,6 +554,15 @@
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6" s="6">
+        <v>45659</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
       <c r="E6" t="s">
         <v>7</v>
       </c>
@@ -555,6 +570,15 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
+      </c>
+      <c r="B7" s="6">
+        <v>45664</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">

--- a/meetings.xlsx
+++ b/meetings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JU\Knowledge_Representation_HT2024\project\TO_BE_NAMED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F320CC-1D77-42AD-8F88-DEDCCC42B07D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1936B07-0065-485D-BDC6-F61E10BC4AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>ID</t>
   </si>
@@ -90,6 +90,12 @@
   </si>
   <si>
     <t>Reviewed current work, Suggest Updates to One of the Chats, Planned Remaining Report Writing</t>
+  </si>
+  <si>
+    <t>Planned Finetuning of Report, Uploaded the Workflow Diagrams Report, Planned for Fridays Presentation</t>
+  </si>
+  <si>
+    <t>ma, is, se, ce</t>
   </si>
 </sst>
 </file>
@@ -452,7 +458,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -585,6 +591,15 @@
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8" s="6">
+        <v>45665</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">

--- a/meetings.xlsx
+++ b/meetings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JU\Knowledge_Representation_HT2024\project\TO_BE_NAMED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1936B07-0065-485D-BDC6-F61E10BC4AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A0119F-842E-45F9-8688-72BB994B9960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>ID</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>ma, is, se, ce</t>
+  </si>
+  <si>
+    <t>Planned and divided presentation slides</t>
   </si>
 </sst>
 </file>
@@ -457,8 +460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -605,6 +608,15 @@
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="B9" s="6">
+        <v>45666</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">

--- a/meetings.xlsx
+++ b/meetings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JU\Knowledge_Representation_HT2024\project\TO_BE_NAMED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A0119F-842E-45F9-8688-72BB994B9960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E0294C-DDC8-4A89-98A0-25C4DAC9EAC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>ID</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>Planned and divided presentation slides</t>
+  </si>
+  <si>
+    <t>Wrote and signed agreement</t>
   </si>
 </sst>
 </file>
@@ -460,8 +463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -622,6 +625,12 @@
       <c r="A10">
         <v>9</v>
       </c>
+      <c r="B10" s="6">
+        <v>45667</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">

--- a/meetings.xlsx
+++ b/meetings.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JU\Knowledge_Representation_HT2024\project\TO_BE_NAMED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E0294C-DDC8-4A89-98A0-25C4DAC9EAC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3016CE3D-46B7-449F-8DCF-15C5A0584D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>ID</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t>Wrote and signed agreement</t>
+  </si>
+  <si>
+    <t>Planned Final Report Writing</t>
+  </si>
+  <si>
+    <t>ma, se, cl, ce</t>
   </si>
 </sst>
 </file>
@@ -464,7 +470,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -631,10 +637,19 @@
       <c r="C10" t="s">
         <v>21</v>
       </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
+      </c>
+      <c r="B11" s="6">
+        <v>45668</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
